--- a/ДЗ/ДЗ-18-02-25/Task-19-21.xlsx
+++ b/ДЗ/ДЗ-18-02-25/Task-19-21.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aziz0\Documents\Main\ege\ДЗ\ДЗ-18-02-25\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5214E90F-CC0C-4F09-AB01-8F4DBD8ABBC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3871586-848C-4813-8A02-85781B2D21CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{88693161-0CF8-4028-B5D3-10F73D6B3486}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{88693161-0CF8-4028-B5D3-10F73D6B3486}"/>
   </bookViews>
   <sheets>
     <sheet name="19" sheetId="1" r:id="rId1"/>
@@ -435,21 +435,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -474,371 +459,26 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="42">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1211,8 +851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E900262B-7CEC-44A3-9B3B-640B2DE10B5C}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1231,17 +871,17 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="23"/>
+      <c r="D1" s="33"/>
       <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="25"/>
+      <c r="G1" s="35"/>
       <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
@@ -1251,7 +891,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="3">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C2" s="7">
         <f>A2+3</f>
@@ -1259,11 +899,11 @@
       </c>
       <c r="D2" s="8">
         <f>B2</f>
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E2" s="9">
         <f>C2*D2</f>
-        <v>390</v>
+        <v>280</v>
       </c>
       <c r="F2" s="8">
         <f>C2+3</f>
@@ -1271,11 +911,11 @@
       </c>
       <c r="G2" s="10">
         <f>D2</f>
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="H2" s="17">
         <f>G2*F2</f>
-        <v>507</v>
+        <v>364</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1289,11 +929,11 @@
       </c>
       <c r="G3" s="12">
         <f>D2</f>
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ref="H3:H17" si="0">G3*F3</f>
-        <v>780</v>
+        <v>560</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1305,11 +945,11 @@
       </c>
       <c r="G4" s="12">
         <f>D2+3</f>
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H4" s="17">
         <f t="shared" si="0"/>
-        <v>420</v>
+        <v>310</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1323,11 +963,11 @@
       </c>
       <c r="G5" s="16">
         <f>D2*2</f>
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="H5" s="17">
         <f t="shared" si="0"/>
-        <v>780</v>
+        <v>560</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1338,11 +978,11 @@
       </c>
       <c r="D6" s="8">
         <f>B2</f>
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E6" s="9">
         <f t="shared" ref="E6:E14" si="1">C6*D6</f>
-        <v>546</v>
+        <v>392</v>
       </c>
       <c r="F6" s="8">
         <f>C6+3</f>
@@ -1350,11 +990,11 @@
       </c>
       <c r="G6" s="10">
         <f>D6</f>
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="H6" s="17">
         <f t="shared" si="0"/>
-        <v>663</v>
+        <v>476</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1366,11 +1006,11 @@
       </c>
       <c r="G7" s="12">
         <f>D6</f>
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="H7" s="17">
         <f t="shared" si="0"/>
-        <v>1092</v>
+        <v>784</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1382,11 +1022,11 @@
       </c>
       <c r="G8" s="12">
         <f>D6+3</f>
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H8" s="17">
         <f t="shared" si="0"/>
-        <v>588</v>
+        <v>434</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1400,11 +1040,11 @@
       </c>
       <c r="G9" s="16">
         <f>D6*2</f>
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="H9" s="17">
         <f t="shared" si="0"/>
-        <v>1092</v>
+        <v>784</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1415,11 +1055,11 @@
       </c>
       <c r="D10" s="8">
         <f>B2+3</f>
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E10" s="9">
         <f t="shared" si="1"/>
-        <v>294</v>
+        <v>217</v>
       </c>
       <c r="F10" s="8">
         <f>C10+3</f>
@@ -1427,11 +1067,11 @@
       </c>
       <c r="G10" s="10">
         <f>D10</f>
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H10" s="17">
         <f t="shared" si="0"/>
-        <v>420</v>
+        <v>310</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1443,11 +1083,11 @@
       </c>
       <c r="G11" s="12">
         <f>D10</f>
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H11" s="17">
         <f t="shared" si="0"/>
-        <v>588</v>
+        <v>434</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1459,11 +1099,11 @@
       </c>
       <c r="G12" s="12">
         <f>D10+3</f>
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="H12" s="17">
         <f t="shared" si="0"/>
-        <v>315</v>
+        <v>238</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1477,11 +1117,11 @@
       </c>
       <c r="G13" s="16">
         <f>D10*2</f>
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="H13" s="17">
         <f t="shared" si="0"/>
-        <v>588</v>
+        <v>434</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1492,11 +1132,11 @@
       </c>
       <c r="D14" s="8">
         <f>B2*2</f>
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="E14" s="9">
         <f t="shared" si="1"/>
-        <v>546</v>
+        <v>392</v>
       </c>
       <c r="F14" s="8">
         <f>C14+3</f>
@@ -1504,11 +1144,11 @@
       </c>
       <c r="G14" s="10">
         <f>D14</f>
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="H14" s="17">
         <f t="shared" si="0"/>
-        <v>780</v>
+        <v>560</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1520,11 +1160,11 @@
       </c>
       <c r="G15" s="12">
         <f>D14</f>
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="H15" s="17">
         <f t="shared" si="0"/>
-        <v>1092</v>
+        <v>784</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1536,11 +1176,11 @@
       </c>
       <c r="G16" s="12">
         <f>D14+3</f>
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="H16" s="17">
         <f t="shared" si="0"/>
-        <v>567</v>
+        <v>413</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1554,11 +1194,11 @@
       </c>
       <c r="G17" s="16">
         <f>D14*2</f>
-        <v>156</v>
+        <v>112</v>
       </c>
       <c r="H17" s="17">
         <f t="shared" si="0"/>
-        <v>1092</v>
+        <v>784</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -1614,17 +1254,17 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="23"/>
+      <c r="D1" s="33"/>
       <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="25"/>
+      <c r="G1" s="35"/>
       <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
@@ -2113,7 +1753,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AC3071C-28BA-4A08-BA7A-B941A4058701}">
   <dimension ref="A1:N65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="U19" sqref="U19"/>
     </sheetView>
   </sheetViews>
@@ -2122,11 +1762,11 @@
     <col min="1" max="6" width="7" style="1"/>
     <col min="7" max="7" width="7" style="2"/>
     <col min="8" max="9" width="7" style="1"/>
-    <col min="10" max="10" width="7" style="36"/>
+    <col min="10" max="10" width="7" style="31"/>
     <col min="11" max="11" width="7" style="3"/>
     <col min="12" max="12" width="7" style="19"/>
     <col min="13" max="13" width="7" style="1"/>
-    <col min="14" max="14" width="7" style="28"/>
+    <col min="14" max="14" width="7" style="23"/>
     <col min="15" max="16384" width="7" style="1"/>
   </cols>
   <sheetData>
@@ -2137,37 +1777,37 @@
       <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="24" t="s">
+      <c r="D1" s="37"/>
+      <c r="E1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="34" t="s">
+      <c r="F1" s="35"/>
+      <c r="G1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="27"/>
-      <c r="J1" s="34" t="s">
+      <c r="I1" s="37"/>
+      <c r="J1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="25"/>
-      <c r="M1" s="37" t="s">
+      <c r="L1" s="35"/>
+      <c r="M1" s="32" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="29">
+      <c r="A2" s="24">
         <v>7</v>
       </c>
-      <c r="B2" s="29">
+      <c r="B2" s="24">
         <v>33</v>
       </c>
       <c r="C2" s="7">
@@ -2198,15 +1838,15 @@
         <f>F2</f>
         <v>33</v>
       </c>
-      <c r="J2" s="35">
+      <c r="J2" s="30">
         <f>I2*H2</f>
         <v>528</v>
       </c>
       <c r="K2" s="21">
-        <f>MAX(H2:I2)*2</f>
+        <f t="shared" ref="K2:K33" si="0">MAX(H2:I2)*2</f>
         <v>66</v>
       </c>
-      <c r="L2" s="31">
+      <c r="L2" s="26">
         <f>MIN(H2:I2)</f>
         <v>16</v>
       </c>
@@ -2216,8 +1856,8 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="11"/>
       <c r="D3" s="3" t="s">
         <v>5</v>
@@ -2231,26 +1871,26 @@
         <f>F2</f>
         <v>33</v>
       </c>
-      <c r="J3" s="35">
-        <f t="shared" ref="J3:J65" si="0">I3*H3</f>
+      <c r="J3" s="30">
+        <f t="shared" ref="J3:J65" si="1">I3*H3</f>
         <v>858</v>
       </c>
       <c r="K3" s="3">
-        <f>MAX(H3:I3)*2</f>
+        <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="L3" s="32">
-        <f t="shared" ref="L3:L17" si="1">MIN(H3:I3)</f>
+      <c r="L3" s="27">
+        <f t="shared" ref="L3:L17" si="2">MIN(H3:I3)</f>
         <v>26</v>
       </c>
       <c r="M3" s="17">
-        <f t="shared" ref="M3:M65" si="2">L3*K3</f>
+        <f t="shared" ref="M3:M65" si="3">L3*K3</f>
         <v>1716</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
       <c r="C4" s="11"/>
       <c r="D4" s="3"/>
       <c r="E4" s="11"/>
@@ -2262,26 +1902,26 @@
         <f>F2+3</f>
         <v>36</v>
       </c>
-      <c r="J4" s="35">
-        <f t="shared" si="0"/>
+      <c r="J4" s="30">
+        <f t="shared" si="1"/>
         <v>468</v>
       </c>
       <c r="K4" s="3">
-        <f>MAX(H4:I4)*2</f>
+        <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="L4" s="32">
-        <f t="shared" si="1"/>
+      <c r="L4" s="27">
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="M4" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>936</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
       <c r="C5" s="11"/>
       <c r="D5" s="3"/>
       <c r="E5" s="13"/>
@@ -2295,26 +1935,26 @@
         <f>F2*2</f>
         <v>66</v>
       </c>
-      <c r="J5" s="35">
-        <f t="shared" si="0"/>
+      <c r="J5" s="30">
+        <f t="shared" si="1"/>
         <v>858</v>
       </c>
       <c r="K5" s="3">
-        <f>MAX(H5:I5)*2</f>
+        <f t="shared" si="0"/>
         <v>132</v>
       </c>
-      <c r="L5" s="32">
-        <f t="shared" si="1"/>
+      <c r="L5" s="27">
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="M5" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1716</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="28"/>
-      <c r="B6" s="28"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
       <c r="C6" s="11"/>
       <c r="D6" s="3"/>
       <c r="E6" s="7">
@@ -2337,26 +1977,26 @@
         <f>F6</f>
         <v>33</v>
       </c>
-      <c r="J6" s="35">
-        <f t="shared" si="0"/>
+      <c r="J6" s="30">
+        <f t="shared" si="1"/>
         <v>759</v>
       </c>
       <c r="K6" s="3">
-        <f>MAX(H6:I6)*2</f>
+        <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="L6" s="32">
-        <f t="shared" si="1"/>
+      <c r="L6" s="27">
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="M6" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1518</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="28"/>
-      <c r="B7" s="28"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
       <c r="C7" s="11"/>
       <c r="D7" s="3"/>
       <c r="E7" s="11"/>
@@ -2368,26 +2008,26 @@
         <f>F6</f>
         <v>33</v>
       </c>
-      <c r="J7" s="35">
-        <f t="shared" si="0"/>
+      <c r="J7" s="30">
+        <f t="shared" si="1"/>
         <v>1320</v>
       </c>
       <c r="K7" s="3">
-        <f>MAX(H7:I7)*2</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="L7" s="32">
-        <f t="shared" si="1"/>
+      <c r="L7" s="27">
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
       <c r="M7" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2640</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="28"/>
-      <c r="B8" s="28"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
       <c r="C8" s="11"/>
       <c r="D8" s="3"/>
       <c r="E8" s="11"/>
@@ -2399,26 +2039,26 @@
         <f>F6+3</f>
         <v>36</v>
       </c>
-      <c r="J8" s="35">
-        <f t="shared" si="0"/>
+      <c r="J8" s="30">
+        <f t="shared" si="1"/>
         <v>720</v>
       </c>
       <c r="K8" s="3">
-        <f>MAX(H8:I8)*2</f>
+        <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="L8" s="32">
-        <f t="shared" si="1"/>
+      <c r="L8" s="27">
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="M8" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1440</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
       <c r="C9" s="11"/>
       <c r="D9" s="3"/>
       <c r="E9" s="13"/>
@@ -2432,26 +2072,26 @@
         <f>F6*2</f>
         <v>66</v>
       </c>
-      <c r="J9" s="35">
-        <f t="shared" si="0"/>
+      <c r="J9" s="30">
+        <f t="shared" si="1"/>
         <v>1320</v>
       </c>
       <c r="K9" s="3">
-        <f>MAX(H9:I9)*2</f>
+        <f t="shared" si="0"/>
         <v>132</v>
       </c>
-      <c r="L9" s="32">
-        <f t="shared" si="1"/>
+      <c r="L9" s="27">
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="M9" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2640</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
       <c r="C10" s="11"/>
       <c r="D10" s="3"/>
       <c r="E10" s="7">
@@ -2474,26 +2114,26 @@
         <f>F10</f>
         <v>36</v>
       </c>
-      <c r="J10" s="35">
-        <f t="shared" si="0"/>
+      <c r="J10" s="30">
+        <f t="shared" si="1"/>
         <v>468</v>
       </c>
       <c r="K10" s="3">
-        <f>MAX(H10:I10)*2</f>
+        <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="L10" s="32">
-        <f t="shared" si="1"/>
+      <c r="L10" s="27">
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="M10" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>936</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="28"/>
-      <c r="B11" s="28"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
       <c r="C11" s="11"/>
       <c r="D11" s="3"/>
       <c r="E11" s="11"/>
@@ -2505,26 +2145,26 @@
         <f>F10</f>
         <v>36</v>
       </c>
-      <c r="J11" s="35">
-        <f t="shared" si="0"/>
+      <c r="J11" s="30">
+        <f t="shared" si="1"/>
         <v>720</v>
       </c>
       <c r="K11" s="3">
-        <f>MAX(H11:I11)*2</f>
+        <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="L11" s="32">
-        <f t="shared" si="1"/>
+      <c r="L11" s="27">
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="M11" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1440</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="28"/>
-      <c r="B12" s="28"/>
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
       <c r="C12" s="11"/>
       <c r="D12" s="3"/>
       <c r="E12" s="11"/>
@@ -2536,26 +2176,26 @@
         <f>F10+3</f>
         <v>39</v>
       </c>
-      <c r="J12" s="35">
-        <f t="shared" si="0"/>
+      <c r="J12" s="30">
+        <f t="shared" si="1"/>
         <v>390</v>
       </c>
       <c r="K12" s="3">
-        <f>MAX(H12:I12)*2</f>
+        <f t="shared" si="0"/>
         <v>78</v>
       </c>
-      <c r="L12" s="32">
-        <f t="shared" si="1"/>
+      <c r="L12" s="27">
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="M12" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>780</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="28"/>
-      <c r="B13" s="28"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
       <c r="C13" s="11"/>
       <c r="D13" s="3"/>
       <c r="E13" s="13"/>
@@ -2569,26 +2209,26 @@
         <f>F10*2</f>
         <v>72</v>
       </c>
-      <c r="J13" s="35">
-        <f t="shared" si="0"/>
+      <c r="J13" s="30">
+        <f t="shared" si="1"/>
         <v>720</v>
       </c>
       <c r="K13" s="3">
-        <f>MAX(H13:I13)*2</f>
+        <f t="shared" si="0"/>
         <v>144</v>
       </c>
-      <c r="L13" s="32">
-        <f t="shared" si="1"/>
+      <c r="L13" s="27">
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="M13" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1440</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="28"/>
-      <c r="B14" s="28"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="11"/>
       <c r="D14" s="3"/>
       <c r="E14" s="7">
@@ -2611,26 +2251,26 @@
         <f>F14</f>
         <v>66</v>
       </c>
-      <c r="J14" s="35">
-        <f t="shared" si="0"/>
+      <c r="J14" s="30">
+        <f t="shared" si="1"/>
         <v>858</v>
       </c>
       <c r="K14" s="3">
-        <f>MAX(H14:I14)*2</f>
+        <f t="shared" si="0"/>
         <v>132</v>
       </c>
-      <c r="L14" s="32">
-        <f t="shared" si="1"/>
+      <c r="L14" s="27">
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="M14" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1716</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="28"/>
-      <c r="B15" s="28"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
       <c r="C15" s="11"/>
       <c r="D15" s="3"/>
       <c r="E15" s="11"/>
@@ -2642,26 +2282,26 @@
         <f>F14</f>
         <v>66</v>
       </c>
-      <c r="J15" s="35">
-        <f t="shared" si="0"/>
+      <c r="J15" s="30">
+        <f t="shared" si="1"/>
         <v>1320</v>
       </c>
       <c r="K15" s="3">
-        <f>MAX(H15:I15)*2</f>
+        <f t="shared" si="0"/>
         <v>132</v>
       </c>
-      <c r="L15" s="32">
-        <f t="shared" si="1"/>
+      <c r="L15" s="27">
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="M15" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2640</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="28"/>
-      <c r="B16" s="28"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="11"/>
       <c r="D16" s="3"/>
       <c r="E16" s="11"/>
@@ -2673,26 +2313,26 @@
         <f>F14+3</f>
         <v>69</v>
       </c>
-      <c r="J16" s="35">
-        <f t="shared" si="0"/>
+      <c r="J16" s="30">
+        <f t="shared" si="1"/>
         <v>690</v>
       </c>
       <c r="K16" s="3">
-        <f>MAX(H16:I16)*2</f>
+        <f t="shared" si="0"/>
         <v>138</v>
       </c>
-      <c r="L16" s="32">
-        <f t="shared" si="1"/>
+      <c r="L16" s="27">
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="M16" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1380</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="30"/>
-      <c r="B17" s="30"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
       <c r="C17" s="13"/>
       <c r="D17" s="22"/>
       <c r="E17" s="13"/>
@@ -2706,20 +2346,20 @@
         <f>F14*2</f>
         <v>132</v>
       </c>
-      <c r="J17" s="35">
-        <f t="shared" si="0"/>
+      <c r="J17" s="30">
+        <f t="shared" si="1"/>
         <v>1320</v>
       </c>
       <c r="K17" s="22">
-        <f>MAX(H17:I17)*2</f>
+        <f t="shared" si="0"/>
         <v>264</v>
       </c>
-      <c r="L17" s="33">
-        <f t="shared" si="1"/>
+      <c r="L17" s="28">
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="M17" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2640</v>
       </c>
     </row>
@@ -2754,20 +2394,20 @@
         <f>F18</f>
         <v>33</v>
       </c>
-      <c r="J18" s="35">
-        <f t="shared" si="0"/>
+      <c r="J18" s="30">
+        <f t="shared" si="1"/>
         <v>660</v>
       </c>
       <c r="K18" s="21">
-        <f>MAX(H18:I18)*2</f>
+        <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="L18" s="31">
+      <c r="L18" s="26">
         <f>MIN(H18:I18)</f>
         <v>20</v>
       </c>
       <c r="M18" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1320</v>
       </c>
     </row>
@@ -2785,20 +2425,20 @@
         <f>F18</f>
         <v>33</v>
       </c>
-      <c r="J19" s="35">
-        <f t="shared" si="0"/>
+      <c r="J19" s="30">
+        <f t="shared" si="1"/>
         <v>1122</v>
       </c>
       <c r="K19" s="3">
-        <f>MAX(H19:I19)*2</f>
+        <f t="shared" si="0"/>
         <v>68</v>
       </c>
-      <c r="L19" s="32">
-        <f t="shared" ref="L19:L33" si="3">MIN(H19:I19)</f>
+      <c r="L19" s="27">
+        <f t="shared" ref="L19:L33" si="4">MIN(H19:I19)</f>
         <v>33</v>
       </c>
       <c r="M19" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2244</v>
       </c>
     </row>
@@ -2814,20 +2454,20 @@
         <f>F18+3</f>
         <v>36</v>
       </c>
-      <c r="J20" s="35">
-        <f t="shared" si="0"/>
+      <c r="J20" s="30">
+        <f t="shared" si="1"/>
         <v>612</v>
       </c>
       <c r="K20" s="3">
-        <f>MAX(H20:I20)*2</f>
+        <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="L20" s="32">
-        <f t="shared" si="3"/>
+      <c r="L20" s="27">
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="M20" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1224</v>
       </c>
     </row>
@@ -2845,20 +2485,20 @@
         <f>F18*2</f>
         <v>66</v>
       </c>
-      <c r="J21" s="35">
-        <f t="shared" si="0"/>
+      <c r="J21" s="30">
+        <f t="shared" si="1"/>
         <v>1122</v>
       </c>
       <c r="K21" s="3">
-        <f>MAX(H21:I21)*2</f>
+        <f t="shared" si="0"/>
         <v>132</v>
       </c>
-      <c r="L21" s="32">
-        <f t="shared" si="3"/>
+      <c r="L21" s="27">
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="M21" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2244</v>
       </c>
     </row>
@@ -2885,20 +2525,20 @@
         <f>F22</f>
         <v>33</v>
       </c>
-      <c r="J22" s="35">
-        <f t="shared" si="0"/>
+      <c r="J22" s="30">
+        <f t="shared" si="1"/>
         <v>1023</v>
       </c>
       <c r="K22" s="3">
-        <f>MAX(H22:I22)*2</f>
+        <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="L22" s="32">
-        <f t="shared" si="3"/>
+      <c r="L22" s="27">
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
       <c r="M22" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2046</v>
       </c>
     </row>
@@ -2914,20 +2554,20 @@
         <f>F22</f>
         <v>33</v>
       </c>
-      <c r="J23" s="35">
-        <f t="shared" si="0"/>
+      <c r="J23" s="30">
+        <f t="shared" si="1"/>
         <v>1848</v>
       </c>
       <c r="K23" s="3">
-        <f>MAX(H23:I23)*2</f>
+        <f t="shared" si="0"/>
         <v>112</v>
       </c>
-      <c r="L23" s="32">
-        <f t="shared" si="3"/>
+      <c r="L23" s="27">
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="M23" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3696</v>
       </c>
     </row>
@@ -2943,20 +2583,20 @@
         <f>F22+3</f>
         <v>36</v>
       </c>
-      <c r="J24" s="35">
-        <f t="shared" si="0"/>
+      <c r="J24" s="30">
+        <f t="shared" si="1"/>
         <v>1008</v>
       </c>
       <c r="K24" s="3">
-        <f>MAX(H24:I24)*2</f>
+        <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="L24" s="32">
-        <f t="shared" si="3"/>
+      <c r="L24" s="27">
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="M24" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2016</v>
       </c>
     </row>
@@ -2974,20 +2614,20 @@
         <f>F22*2</f>
         <v>66</v>
       </c>
-      <c r="J25" s="35">
-        <f t="shared" si="0"/>
+      <c r="J25" s="30">
+        <f t="shared" si="1"/>
         <v>1848</v>
       </c>
       <c r="K25" s="3">
-        <f>MAX(H25:I25)*2</f>
+        <f t="shared" si="0"/>
         <v>132</v>
       </c>
-      <c r="L25" s="32">
-        <f t="shared" si="3"/>
+      <c r="L25" s="27">
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="M25" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3696</v>
       </c>
     </row>
@@ -3014,20 +2654,20 @@
         <f>F26</f>
         <v>36</v>
       </c>
-      <c r="J26" s="35">
-        <f t="shared" si="0"/>
+      <c r="J26" s="30">
+        <f t="shared" si="1"/>
         <v>612</v>
       </c>
       <c r="K26" s="3">
-        <f>MAX(H26:I26)*2</f>
+        <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="L26" s="32">
-        <f t="shared" si="3"/>
+      <c r="L26" s="27">
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="M26" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1224</v>
       </c>
     </row>
@@ -3043,20 +2683,20 @@
         <f>F26</f>
         <v>36</v>
       </c>
-      <c r="J27" s="35">
-        <f t="shared" si="0"/>
+      <c r="J27" s="30">
+        <f t="shared" si="1"/>
         <v>1008</v>
       </c>
       <c r="K27" s="3">
-        <f>MAX(H27:I27)*2</f>
+        <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="L27" s="32">
-        <f t="shared" si="3"/>
+      <c r="L27" s="27">
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="M27" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2016</v>
       </c>
     </row>
@@ -3072,20 +2712,20 @@
         <f>F26+3</f>
         <v>39</v>
       </c>
-      <c r="J28" s="35">
-        <f t="shared" si="0"/>
+      <c r="J28" s="30">
+        <f t="shared" si="1"/>
         <v>546</v>
       </c>
       <c r="K28" s="3">
-        <f>MAX(H28:I28)*2</f>
+        <f t="shared" si="0"/>
         <v>78</v>
       </c>
-      <c r="L28" s="32">
-        <f t="shared" si="3"/>
+      <c r="L28" s="27">
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="M28" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1092</v>
       </c>
     </row>
@@ -3103,20 +2743,20 @@
         <f>F26*2</f>
         <v>72</v>
       </c>
-      <c r="J29" s="35">
-        <f t="shared" si="0"/>
+      <c r="J29" s="30">
+        <f t="shared" si="1"/>
         <v>1008</v>
       </c>
       <c r="K29" s="3">
-        <f>MAX(H29:I29)*2</f>
+        <f t="shared" si="0"/>
         <v>144</v>
       </c>
-      <c r="L29" s="32">
-        <f t="shared" si="3"/>
+      <c r="L29" s="27">
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="M29" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2016</v>
       </c>
     </row>
@@ -3143,20 +2783,20 @@
         <f>F30</f>
         <v>66</v>
       </c>
-      <c r="J30" s="35">
-        <f t="shared" si="0"/>
+      <c r="J30" s="30">
+        <f t="shared" si="1"/>
         <v>1122</v>
       </c>
       <c r="K30" s="3">
-        <f>MAX(H30:I30)*2</f>
+        <f t="shared" si="0"/>
         <v>132</v>
       </c>
-      <c r="L30" s="32">
-        <f t="shared" si="3"/>
+      <c r="L30" s="27">
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="M30" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2244</v>
       </c>
     </row>
@@ -3172,20 +2812,20 @@
         <f>F30</f>
         <v>66</v>
       </c>
-      <c r="J31" s="35">
-        <f t="shared" si="0"/>
+      <c r="J31" s="30">
+        <f t="shared" si="1"/>
         <v>1848</v>
       </c>
       <c r="K31" s="3">
-        <f>MAX(H31:I31)*2</f>
+        <f t="shared" si="0"/>
         <v>132</v>
       </c>
-      <c r="L31" s="32">
-        <f t="shared" si="3"/>
+      <c r="L31" s="27">
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="M31" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3696</v>
       </c>
     </row>
@@ -3201,20 +2841,20 @@
         <f>F30+3</f>
         <v>69</v>
       </c>
-      <c r="J32" s="35">
-        <f t="shared" si="0"/>
+      <c r="J32" s="30">
+        <f t="shared" si="1"/>
         <v>966</v>
       </c>
       <c r="K32" s="3">
-        <f>MAX(H32:I32)*2</f>
+        <f t="shared" si="0"/>
         <v>138</v>
       </c>
-      <c r="L32" s="32">
-        <f t="shared" si="3"/>
+      <c r="L32" s="27">
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="M32" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1932</v>
       </c>
     </row>
@@ -3232,20 +2872,20 @@
         <f>F30*2</f>
         <v>132</v>
       </c>
-      <c r="J33" s="35">
-        <f t="shared" si="0"/>
+      <c r="J33" s="30">
+        <f t="shared" si="1"/>
         <v>1848</v>
       </c>
       <c r="K33" s="22">
-        <f>MAX(H33:I33)*2</f>
+        <f t="shared" si="0"/>
         <v>264</v>
       </c>
-      <c r="L33" s="33">
-        <f t="shared" si="3"/>
+      <c r="L33" s="28">
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="M33" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3696</v>
       </c>
     </row>
@@ -3278,20 +2918,20 @@
         <f>F34</f>
         <v>36</v>
       </c>
-      <c r="J34" s="35">
-        <f t="shared" si="0"/>
+      <c r="J34" s="30">
+        <f t="shared" si="1"/>
         <v>468</v>
       </c>
       <c r="K34" s="21">
-        <f>MAX(H34:I34)*2</f>
+        <f t="shared" ref="K34:K65" si="5">MAX(H34:I34)*2</f>
         <v>72</v>
       </c>
-      <c r="L34" s="31">
+      <c r="L34" s="26">
         <f>MIN(H34:I34)</f>
         <v>13</v>
       </c>
       <c r="M34" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>936</v>
       </c>
     </row>
@@ -3309,20 +2949,20 @@
         <f>F34</f>
         <v>36</v>
       </c>
-      <c r="J35" s="35">
-        <f t="shared" si="0"/>
+      <c r="J35" s="30">
+        <f t="shared" si="1"/>
         <v>720</v>
       </c>
       <c r="K35" s="3">
-        <f>MAX(H35:I35)*2</f>
+        <f t="shared" si="5"/>
         <v>72</v>
       </c>
-      <c r="L35" s="32">
-        <f t="shared" ref="L35:L49" si="4">MIN(H35:I35)</f>
+      <c r="L35" s="27">
+        <f t="shared" ref="L35:L49" si="6">MIN(H35:I35)</f>
         <v>20</v>
       </c>
       <c r="M35" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1440</v>
       </c>
     </row>
@@ -3338,20 +2978,20 @@
         <f>F34+3</f>
         <v>39</v>
       </c>
-      <c r="J36" s="35">
-        <f t="shared" si="0"/>
+      <c r="J36" s="30">
+        <f t="shared" si="1"/>
         <v>390</v>
       </c>
       <c r="K36" s="3">
-        <f>MAX(H36:I36)*2</f>
+        <f t="shared" si="5"/>
         <v>78</v>
       </c>
-      <c r="L36" s="32">
-        <f t="shared" si="4"/>
+      <c r="L36" s="27">
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="M36" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>780</v>
       </c>
     </row>
@@ -3369,20 +3009,20 @@
         <f>F34*2</f>
         <v>72</v>
       </c>
-      <c r="J37" s="35">
-        <f t="shared" si="0"/>
+      <c r="J37" s="30">
+        <f t="shared" si="1"/>
         <v>720</v>
       </c>
       <c r="K37" s="3">
-        <f>MAX(H37:I37)*2</f>
+        <f t="shared" si="5"/>
         <v>144</v>
       </c>
-      <c r="L37" s="32">
-        <f t="shared" si="4"/>
+      <c r="L37" s="27">
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="M37" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1440</v>
       </c>
     </row>
@@ -3409,20 +3049,20 @@
         <f>F38</f>
         <v>36</v>
       </c>
-      <c r="J38" s="35">
-        <f t="shared" si="0"/>
+      <c r="J38" s="30">
+        <f t="shared" si="1"/>
         <v>612</v>
       </c>
       <c r="K38" s="3">
-        <f>MAX(H38:I38)*2</f>
+        <f t="shared" si="5"/>
         <v>72</v>
       </c>
-      <c r="L38" s="32">
-        <f t="shared" si="4"/>
+      <c r="L38" s="27">
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
       <c r="M38" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1224</v>
       </c>
     </row>
@@ -3438,20 +3078,20 @@
         <f>F38</f>
         <v>36</v>
       </c>
-      <c r="J39" s="35">
-        <f t="shared" si="0"/>
+      <c r="J39" s="30">
+        <f t="shared" si="1"/>
         <v>1008</v>
       </c>
       <c r="K39" s="3">
-        <f>MAX(H39:I39)*2</f>
+        <f t="shared" si="5"/>
         <v>72</v>
       </c>
-      <c r="L39" s="32">
-        <f t="shared" si="4"/>
+      <c r="L39" s="27">
+        <f t="shared" si="6"/>
         <v>28</v>
       </c>
       <c r="M39" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2016</v>
       </c>
     </row>
@@ -3467,20 +3107,20 @@
         <f>F38+3</f>
         <v>39</v>
       </c>
-      <c r="J40" s="35">
-        <f t="shared" si="0"/>
+      <c r="J40" s="30">
+        <f t="shared" si="1"/>
         <v>546</v>
       </c>
       <c r="K40" s="3">
-        <f>MAX(H40:I40)*2</f>
+        <f t="shared" si="5"/>
         <v>78</v>
       </c>
-      <c r="L40" s="32">
-        <f t="shared" si="4"/>
+      <c r="L40" s="27">
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="M40" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1092</v>
       </c>
     </row>
@@ -3498,20 +3138,20 @@
         <f>F38*2</f>
         <v>72</v>
       </c>
-      <c r="J41" s="35">
-        <f t="shared" si="0"/>
+      <c r="J41" s="30">
+        <f t="shared" si="1"/>
         <v>1008</v>
       </c>
       <c r="K41" s="3">
-        <f>MAX(H41:I41)*2</f>
+        <f t="shared" si="5"/>
         <v>144</v>
       </c>
-      <c r="L41" s="32">
-        <f t="shared" si="4"/>
+      <c r="L41" s="27">
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="M41" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2016</v>
       </c>
     </row>
@@ -3538,20 +3178,20 @@
         <f>F42</f>
         <v>39</v>
       </c>
-      <c r="J42" s="35">
-        <f t="shared" si="0"/>
+      <c r="J42" s="30">
+        <f t="shared" si="1"/>
         <v>390</v>
       </c>
       <c r="K42" s="3">
-        <f>MAX(H42:I42)*2</f>
+        <f t="shared" si="5"/>
         <v>78</v>
       </c>
-      <c r="L42" s="32">
-        <f t="shared" si="4"/>
+      <c r="L42" s="27">
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="M42" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>780</v>
       </c>
     </row>
@@ -3567,20 +3207,20 @@
         <f>F42</f>
         <v>39</v>
       </c>
-      <c r="J43" s="35">
-        <f t="shared" si="0"/>
+      <c r="J43" s="30">
+        <f t="shared" si="1"/>
         <v>546</v>
       </c>
       <c r="K43" s="3">
-        <f>MAX(H43:I43)*2</f>
+        <f t="shared" si="5"/>
         <v>78</v>
       </c>
-      <c r="L43" s="32">
-        <f t="shared" si="4"/>
+      <c r="L43" s="27">
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="M43" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1092</v>
       </c>
     </row>
@@ -3596,20 +3236,20 @@
         <f>F42+3</f>
         <v>42</v>
       </c>
-      <c r="J44" s="35">
-        <f t="shared" si="0"/>
+      <c r="J44" s="30">
+        <f t="shared" si="1"/>
         <v>294</v>
       </c>
       <c r="K44" s="3">
-        <f>MAX(H44:I44)*2</f>
+        <f t="shared" si="5"/>
         <v>84</v>
       </c>
-      <c r="L44" s="32">
-        <f t="shared" si="4"/>
+      <c r="L44" s="27">
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="M44" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>588</v>
       </c>
     </row>
@@ -3627,20 +3267,20 @@
         <f>F42*2</f>
         <v>78</v>
       </c>
-      <c r="J45" s="35">
-        <f t="shared" si="0"/>
+      <c r="J45" s="30">
+        <f t="shared" si="1"/>
         <v>546</v>
       </c>
       <c r="K45" s="3">
-        <f>MAX(H45:I45)*2</f>
+        <f t="shared" si="5"/>
         <v>156</v>
       </c>
-      <c r="L45" s="32">
-        <f t="shared" si="4"/>
+      <c r="L45" s="27">
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="M45" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1092</v>
       </c>
     </row>
@@ -3667,20 +3307,20 @@
         <f>F46</f>
         <v>72</v>
       </c>
-      <c r="J46" s="35">
-        <f t="shared" si="0"/>
+      <c r="J46" s="30">
+        <f t="shared" si="1"/>
         <v>720</v>
       </c>
       <c r="K46" s="3">
-        <f>MAX(H46:I46)*2</f>
+        <f t="shared" si="5"/>
         <v>144</v>
       </c>
-      <c r="L46" s="32">
-        <f t="shared" si="4"/>
+      <c r="L46" s="27">
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="M46" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1440</v>
       </c>
     </row>
@@ -3696,20 +3336,20 @@
         <f>F46</f>
         <v>72</v>
       </c>
-      <c r="J47" s="35">
-        <f t="shared" si="0"/>
+      <c r="J47" s="30">
+        <f t="shared" si="1"/>
         <v>1008</v>
       </c>
       <c r="K47" s="3">
-        <f>MAX(H47:I47)*2</f>
+        <f t="shared" si="5"/>
         <v>144</v>
       </c>
-      <c r="L47" s="32">
-        <f t="shared" si="4"/>
+      <c r="L47" s="27">
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="M47" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2016</v>
       </c>
     </row>
@@ -3725,20 +3365,20 @@
         <f>F46+3</f>
         <v>75</v>
       </c>
-      <c r="J48" s="35">
-        <f t="shared" si="0"/>
+      <c r="J48" s="30">
+        <f t="shared" si="1"/>
         <v>525</v>
       </c>
       <c r="K48" s="3">
-        <f>MAX(H48:I48)*2</f>
+        <f t="shared" si="5"/>
         <v>150</v>
       </c>
-      <c r="L48" s="32">
-        <f t="shared" si="4"/>
+      <c r="L48" s="27">
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="M48" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1050</v>
       </c>
     </row>
@@ -3756,20 +3396,20 @@
         <f>F46*2</f>
         <v>144</v>
       </c>
-      <c r="J49" s="35">
-        <f t="shared" si="0"/>
+      <c r="J49" s="30">
+        <f t="shared" si="1"/>
         <v>1008</v>
       </c>
       <c r="K49" s="22">
-        <f>MAX(H49:I49)*2</f>
+        <f t="shared" si="5"/>
         <v>288</v>
       </c>
-      <c r="L49" s="33">
-        <f t="shared" si="4"/>
+      <c r="L49" s="28">
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="M49" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2016</v>
       </c>
     </row>
@@ -3802,20 +3442,20 @@
         <f>F50</f>
         <v>66</v>
       </c>
-      <c r="J50" s="35">
-        <f t="shared" si="0"/>
+      <c r="J50" s="30">
+        <f t="shared" si="1"/>
         <v>858</v>
       </c>
       <c r="K50" s="21">
-        <f>MAX(H50:I50)*2</f>
+        <f t="shared" si="5"/>
         <v>132</v>
       </c>
-      <c r="L50" s="31">
+      <c r="L50" s="26">
         <f>MIN(H50:I50)</f>
         <v>13</v>
       </c>
       <c r="M50" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1716</v>
       </c>
     </row>
@@ -3833,20 +3473,20 @@
         <f>F50</f>
         <v>66</v>
       </c>
-      <c r="J51" s="35">
-        <f t="shared" si="0"/>
+      <c r="J51" s="30">
+        <f t="shared" si="1"/>
         <v>1320</v>
       </c>
       <c r="K51" s="3">
-        <f>MAX(H51:I51)*2</f>
+        <f t="shared" si="5"/>
         <v>132</v>
       </c>
-      <c r="L51" s="32">
-        <f t="shared" ref="L51:L65" si="5">MIN(H51:I51)</f>
+      <c r="L51" s="27">
+        <f t="shared" ref="L51:L65" si="7">MIN(H51:I51)</f>
         <v>20</v>
       </c>
       <c r="M51" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2640</v>
       </c>
     </row>
@@ -3862,20 +3502,20 @@
         <f>F50+3</f>
         <v>69</v>
       </c>
-      <c r="J52" s="35">
-        <f t="shared" si="0"/>
+      <c r="J52" s="30">
+        <f t="shared" si="1"/>
         <v>690</v>
       </c>
       <c r="K52" s="3">
-        <f>MAX(H52:I52)*2</f>
+        <f t="shared" si="5"/>
         <v>138</v>
       </c>
-      <c r="L52" s="32">
-        <f t="shared" si="5"/>
+      <c r="L52" s="27">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="M52" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1380</v>
       </c>
     </row>
@@ -3893,20 +3533,20 @@
         <f>F50*2</f>
         <v>132</v>
       </c>
-      <c r="J53" s="35">
-        <f t="shared" si="0"/>
+      <c r="J53" s="30">
+        <f t="shared" si="1"/>
         <v>1320</v>
       </c>
       <c r="K53" s="3">
-        <f>MAX(H53:I53)*2</f>
+        <f t="shared" si="5"/>
         <v>264</v>
       </c>
-      <c r="L53" s="32">
-        <f t="shared" si="5"/>
+      <c r="L53" s="27">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="M53" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2640</v>
       </c>
     </row>
@@ -3933,20 +3573,20 @@
         <f>F54</f>
         <v>66</v>
       </c>
-      <c r="J54" s="35">
-        <f t="shared" si="0"/>
+      <c r="J54" s="30">
+        <f t="shared" si="1"/>
         <v>1122</v>
       </c>
       <c r="K54" s="3">
-        <f>MAX(H54:I54)*2</f>
+        <f t="shared" si="5"/>
         <v>132</v>
       </c>
-      <c r="L54" s="32">
-        <f t="shared" si="5"/>
+      <c r="L54" s="27">
+        <f t="shared" si="7"/>
         <v>17</v>
       </c>
       <c r="M54" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2244</v>
       </c>
     </row>
@@ -3962,20 +3602,20 @@
         <f>F54</f>
         <v>66</v>
       </c>
-      <c r="J55" s="35">
-        <f t="shared" si="0"/>
+      <c r="J55" s="30">
+        <f t="shared" si="1"/>
         <v>1848</v>
       </c>
       <c r="K55" s="3">
-        <f>MAX(H55:I55)*2</f>
+        <f t="shared" si="5"/>
         <v>132</v>
       </c>
-      <c r="L55" s="32">
-        <f t="shared" si="5"/>
+      <c r="L55" s="27">
+        <f t="shared" si="7"/>
         <v>28</v>
       </c>
       <c r="M55" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3696</v>
       </c>
     </row>
@@ -3991,20 +3631,20 @@
         <f>F54+3</f>
         <v>69</v>
       </c>
-      <c r="J56" s="35">
-        <f t="shared" si="0"/>
+      <c r="J56" s="30">
+        <f t="shared" si="1"/>
         <v>966</v>
       </c>
       <c r="K56" s="3">
-        <f>MAX(H56:I56)*2</f>
+        <f t="shared" si="5"/>
         <v>138</v>
       </c>
-      <c r="L56" s="32">
-        <f t="shared" si="5"/>
+      <c r="L56" s="27">
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
       <c r="M56" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1932</v>
       </c>
     </row>
@@ -4022,20 +3662,20 @@
         <f>F54*2</f>
         <v>132</v>
       </c>
-      <c r="J57" s="35">
-        <f t="shared" si="0"/>
+      <c r="J57" s="30">
+        <f t="shared" si="1"/>
         <v>1848</v>
       </c>
       <c r="K57" s="3">
-        <f>MAX(H57:I57)*2</f>
+        <f t="shared" si="5"/>
         <v>264</v>
       </c>
-      <c r="L57" s="32">
-        <f t="shared" si="5"/>
+      <c r="L57" s="27">
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
       <c r="M57" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3696</v>
       </c>
     </row>
@@ -4062,20 +3702,20 @@
         <f>F58</f>
         <v>69</v>
       </c>
-      <c r="J58" s="35">
-        <f t="shared" si="0"/>
+      <c r="J58" s="30">
+        <f t="shared" si="1"/>
         <v>690</v>
       </c>
       <c r="K58" s="3">
-        <f>MAX(H58:I58)*2</f>
+        <f t="shared" si="5"/>
         <v>138</v>
       </c>
-      <c r="L58" s="32">
-        <f t="shared" si="5"/>
+      <c r="L58" s="27">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="M58" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1380</v>
       </c>
     </row>
@@ -4091,20 +3731,20 @@
         <f>F58</f>
         <v>69</v>
       </c>
-      <c r="J59" s="35">
-        <f t="shared" si="0"/>
+      <c r="J59" s="30">
+        <f t="shared" si="1"/>
         <v>966</v>
       </c>
       <c r="K59" s="3">
-        <f>MAX(H59:I59)*2</f>
+        <f t="shared" si="5"/>
         <v>138</v>
       </c>
-      <c r="L59" s="32">
-        <f t="shared" si="5"/>
+      <c r="L59" s="27">
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
       <c r="M59" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1932</v>
       </c>
     </row>
@@ -4120,20 +3760,20 @@
         <f>F58+3</f>
         <v>72</v>
       </c>
-      <c r="J60" s="35">
-        <f t="shared" si="0"/>
+      <c r="J60" s="30">
+        <f t="shared" si="1"/>
         <v>504</v>
       </c>
       <c r="K60" s="3">
-        <f>MAX(H60:I60)*2</f>
+        <f t="shared" si="5"/>
         <v>144</v>
       </c>
-      <c r="L60" s="32">
-        <f t="shared" si="5"/>
+      <c r="L60" s="27">
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="M60" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1008</v>
       </c>
     </row>
@@ -4151,20 +3791,20 @@
         <f>F58*2</f>
         <v>138</v>
       </c>
-      <c r="J61" s="35">
-        <f t="shared" si="0"/>
+      <c r="J61" s="30">
+        <f t="shared" si="1"/>
         <v>966</v>
       </c>
       <c r="K61" s="3">
-        <f>MAX(H61:I61)*2</f>
+        <f t="shared" si="5"/>
         <v>276</v>
       </c>
-      <c r="L61" s="32">
-        <f t="shared" si="5"/>
+      <c r="L61" s="27">
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="M61" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1932</v>
       </c>
     </row>
@@ -4191,20 +3831,20 @@
         <f>F62</f>
         <v>132</v>
       </c>
-      <c r="J62" s="35">
-        <f t="shared" si="0"/>
+      <c r="J62" s="30">
+        <f t="shared" si="1"/>
         <v>1320</v>
       </c>
       <c r="K62" s="3">
-        <f>MAX(H62:I62)*2</f>
+        <f t="shared" si="5"/>
         <v>264</v>
       </c>
-      <c r="L62" s="32">
-        <f t="shared" si="5"/>
+      <c r="L62" s="27">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="M62" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2640</v>
       </c>
     </row>
@@ -4220,20 +3860,20 @@
         <f>F62</f>
         <v>132</v>
       </c>
-      <c r="J63" s="35">
-        <f t="shared" si="0"/>
+      <c r="J63" s="30">
+        <f t="shared" si="1"/>
         <v>1848</v>
       </c>
       <c r="K63" s="3">
-        <f>MAX(H63:I63)*2</f>
+        <f t="shared" si="5"/>
         <v>264</v>
       </c>
-      <c r="L63" s="32">
-        <f t="shared" si="5"/>
+      <c r="L63" s="27">
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
       <c r="M63" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3696</v>
       </c>
     </row>
@@ -4249,20 +3889,20 @@
         <f>F62+3</f>
         <v>135</v>
       </c>
-      <c r="J64" s="35">
-        <f t="shared" si="0"/>
+      <c r="J64" s="30">
+        <f t="shared" si="1"/>
         <v>945</v>
       </c>
       <c r="K64" s="3">
-        <f>MAX(H64:I64)*2</f>
+        <f t="shared" si="5"/>
         <v>270</v>
       </c>
-      <c r="L64" s="32">
-        <f t="shared" si="5"/>
+      <c r="L64" s="27">
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="M64" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1890</v>
       </c>
     </row>
@@ -4280,20 +3920,20 @@
         <f>F62*2</f>
         <v>264</v>
       </c>
-      <c r="J65" s="35">
-        <f t="shared" si="0"/>
+      <c r="J65" s="30">
+        <f t="shared" si="1"/>
         <v>1848</v>
       </c>
       <c r="K65" s="22">
-        <f>MAX(H65:I65)*2</f>
+        <f t="shared" si="5"/>
         <v>528</v>
       </c>
-      <c r="L65" s="33">
-        <f t="shared" si="5"/>
+      <c r="L65" s="28">
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="M65" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3696</v>
       </c>
     </row>
